--- a/Planilhas/prontuario.xlsx
+++ b/Planilhas/prontuario.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32184284831\Documents\Dev 2 semestre\SP Med Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32184284831\Documents\Dev 2 semestre\SP Med Group\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="prontuario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -229,19 +229,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +517,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,6 +528,7 @@
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,12 +554,12 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -590,12 +583,12 @@
       <c r="G2" s="3">
         <v>94839859000</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -619,12 +612,12 @@
       <c r="G3" s="6">
         <v>73556944057</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -648,12 +641,12 @@
       <c r="G4" s="3">
         <v>16839338002</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -677,12 +670,12 @@
       <c r="G5" s="6">
         <v>14332654765</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -706,12 +699,12 @@
       <c r="G6" s="3">
         <v>91305348010</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -735,12 +728,12 @@
       <c r="G7" s="6">
         <v>79799299004</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -764,27 +757,17 @@
       <c r="G8" s="3">
         <v>13771913039</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
